--- a/Herramientas y Documentacion/empleados.xlsx
+++ b/Herramientas y Documentacion/empleados.xlsx
@@ -2398,13 +2398,13 @@
     <t>08/08/2022  0:00:00</t>
   </si>
   <si>
-    <t>}}</t>
-  </si>
-  <si>
     <t>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\</t>
   </si>
   <si>
     <t>.jpg","pct_emp_dni":"</t>
+  </si>
+  <si>
+    <t>"}}</t>
   </si>
 </sst>
 </file>
@@ -16695,8 +16695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16709,4072 +16709,4072 @@
   <sheetData>
     <row r="1" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D1" t="str">
         <f>Hoja1!C1</f>
         <v>12345678Z</v>
       </c>
       <c r="E1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F1" t="str">
         <f t="shared" ref="F1:F65" si="0">CONCATENATE(A1,B1,C1,D1,E1)</f>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12345678Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12345678Z"}}</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D2" t="str">
         <f>Hoja1!C2</f>
         <v>12345701Z</v>
       </c>
       <c r="E2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\2.jpg","pct_emp_dni":"12345701Z}}</v>
+        <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\2.jpg","pct_emp_dni":"12345701Z"}}</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D3" t="str">
         <f>Hoja1!C3</f>
         <v>12345724Z</v>
       </c>
       <c r="E3" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\3.jpg","pct_emp_dni":"12345724Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\3.jpg","pct_emp_dni":"12345724Z"}}</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D4" t="str">
         <f>Hoja1!C4</f>
         <v>12345747Z</v>
       </c>
       <c r="E4" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\4.jpg","pct_emp_dni":"12345747Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\4.jpg","pct_emp_dni":"12345747Z"}}</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D5" t="str">
         <f>Hoja1!C5</f>
         <v>12345770Z</v>
       </c>
       <c r="E5" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\5.jpg","pct_emp_dni":"12345770Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\5.jpg","pct_emp_dni":"12345770Z"}}</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D6" t="str">
         <f>Hoja1!C6</f>
         <v>12345793Z</v>
       </c>
       <c r="E6" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\6.jpg","pct_emp_dni":"12345793Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\6.jpg","pct_emp_dni":"12345793Z"}}</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D7" t="str">
         <f>Hoja1!C7</f>
         <v>12345816Z</v>
       </c>
       <c r="E7" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\7.jpg","pct_emp_dni":"12345816Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\7.jpg","pct_emp_dni":"12345816Z"}}</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D8" t="str">
         <f>Hoja1!C8</f>
         <v>12345839Z</v>
       </c>
       <c r="E8" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\8.jpg","pct_emp_dni":"12345839Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\8.jpg","pct_emp_dni":"12345839Z"}}</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D9" t="str">
         <f>Hoja1!C9</f>
         <v>12345862Z</v>
       </c>
       <c r="E9" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\9.jpg","pct_emp_dni":"12345862Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\9.jpg","pct_emp_dni":"12345862Z"}}</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D10" t="str">
         <f>Hoja1!C10</f>
         <v>12345885Z</v>
       </c>
       <c r="E10" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\10.jpg","pct_emp_dni":"12345885Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\10.jpg","pct_emp_dni":"12345885Z"}}</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B11">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D11" t="str">
         <f>Hoja1!C11</f>
         <v>12345908Z</v>
       </c>
       <c r="E11" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\11.jpg","pct_emp_dni":"12345908Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\11.jpg","pct_emp_dni":"12345908Z"}}</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B12">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D12" t="str">
         <f>Hoja1!C12</f>
         <v>12345931Z</v>
       </c>
       <c r="E12" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\12.jpg","pct_emp_dni":"12345931Z}}</v>
+        <f>CONCATENATE(A12,B12,C12,D12,E12)</f>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\12.jpg","pct_emp_dni":"12345931Z"}}</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B13">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D13" t="str">
         <f>Hoja1!C13</f>
         <v>12345954Z</v>
       </c>
       <c r="E13" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\13.jpg","pct_emp_dni":"12345954Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\13.jpg","pct_emp_dni":"12345954Z"}}</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B14">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D14" t="str">
         <f>Hoja1!C14</f>
         <v>12345977Z</v>
       </c>
       <c r="E14" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\14.jpg","pct_emp_dni":"12345977Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\14.jpg","pct_emp_dni":"12345977Z"}}</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B15">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D15" t="str">
         <f>Hoja1!C15</f>
         <v>12346000Z</v>
       </c>
       <c r="E15" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\15.jpg","pct_emp_dni":"12346000Z}}</v>
+        <f>CONCATENATE(A15,B15,C15,D15,E15)</f>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\15.jpg","pct_emp_dni":"12346000Z"}}</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B16">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D16" t="str">
         <f>Hoja1!C16</f>
         <v>12346023Z</v>
       </c>
       <c r="E16" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\16.jpg","pct_emp_dni":"12346023Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\16.jpg","pct_emp_dni":"12346023Z"}}</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B17">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D17" t="str">
         <f>Hoja1!C17</f>
         <v>12346046Z</v>
       </c>
       <c r="E17" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\17.jpg","pct_emp_dni":"12346046Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\17.jpg","pct_emp_dni":"12346046Z"}}</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B18">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D18" t="str">
         <f>Hoja1!C18</f>
         <v>12346069Z</v>
       </c>
       <c r="E18" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\18.jpg","pct_emp_dni":"12346069Z}}</v>
+        <f>CONCATENATE(A18,B18,C18,D18,E18)</f>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\18.jpg","pct_emp_dni":"12346069Z"}}</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B19">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D19" t="str">
         <f>Hoja1!C19</f>
         <v>12346092Z</v>
       </c>
       <c r="E19" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\19.jpg","pct_emp_dni":"12346092Z}}</v>
+        <f>CONCATENATE(A19,B19,C19,D19,E19)</f>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\19.jpg","pct_emp_dni":"12346092Z"}}</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B20">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D20" t="str">
         <f>Hoja1!C20</f>
         <v>12346115Z</v>
       </c>
       <c r="E20" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\20.jpg","pct_emp_dni":"12346115Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\20.jpg","pct_emp_dni":"12346115Z"}}</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B21">
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D21" t="str">
         <f>Hoja1!C21</f>
         <v>12346138Z</v>
       </c>
       <c r="E21" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\21.jpg","pct_emp_dni":"12346138Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\21.jpg","pct_emp_dni":"12346138Z"}}</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B22">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D22" t="str">
         <f>Hoja1!C22</f>
         <v>12346161Z</v>
       </c>
       <c r="E22" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\22.jpg","pct_emp_dni":"12346161Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\22.jpg","pct_emp_dni":"12346161Z"}}</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B23">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D23" t="str">
         <f>Hoja1!C23</f>
         <v>12346184Z</v>
       </c>
       <c r="E23" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\23.jpg","pct_emp_dni":"12346184Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\23.jpg","pct_emp_dni":"12346184Z"}}</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B24">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D24" t="str">
         <f>Hoja1!C24</f>
         <v>12346207Z</v>
       </c>
       <c r="E24" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\24.jpg","pct_emp_dni":"12346207Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\24.jpg","pct_emp_dni":"12346207Z"}}</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B25">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D25" t="str">
         <f>Hoja1!C25</f>
         <v>12346230Z</v>
       </c>
       <c r="E25" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\25.jpg","pct_emp_dni":"12346230Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\25.jpg","pct_emp_dni":"12346230Z"}}</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B26">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D26" t="str">
         <f>Hoja1!C26</f>
         <v>12346253Z</v>
       </c>
       <c r="E26" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\26.jpg","pct_emp_dni":"12346253Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\26.jpg","pct_emp_dni":"12346253Z"}}</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B27">
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D27" t="str">
         <f>Hoja1!C27</f>
         <v>12346276Z</v>
       </c>
       <c r="E27" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\27.jpg","pct_emp_dni":"12346276Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\27.jpg","pct_emp_dni":"12346276Z"}}</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B28">
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D28" t="str">
         <f>Hoja1!C28</f>
         <v>12346299Z</v>
       </c>
       <c r="E28" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\28.jpg","pct_emp_dni":"12346299Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\28.jpg","pct_emp_dni":"12346299Z"}}</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B29">
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D29" t="str">
         <f>Hoja1!C29</f>
         <v>12346322Z</v>
       </c>
       <c r="E29" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\29.jpg","pct_emp_dni":"12346322Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\29.jpg","pct_emp_dni":"12346322Z"}}</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B30">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D30" t="str">
         <f>Hoja1!C30</f>
         <v>12346345Z</v>
       </c>
       <c r="E30" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\30.jpg","pct_emp_dni":"12346345Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\30.jpg","pct_emp_dni":"12346345Z"}}</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B31">
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D31" t="str">
         <f>Hoja1!C31</f>
         <v>12346368Z</v>
       </c>
       <c r="E31" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\31.jpg","pct_emp_dni":"12346368Z}}</v>
+        <f>CONCATENATE(A31,B31,C31,D31,E31)</f>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\31.jpg","pct_emp_dni":"12346368Z"}}</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B32">
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D32" t="str">
         <f>Hoja1!C32</f>
         <v>12346391Z</v>
       </c>
       <c r="E32" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\32.jpg","pct_emp_dni":"12346391Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\32.jpg","pct_emp_dni":"12346391Z"}}</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B33">
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D33" t="str">
         <f>Hoja1!C33</f>
         <v>12346414Z</v>
       </c>
       <c r="E33" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\33.jpg","pct_emp_dni":"12346414Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\33.jpg","pct_emp_dni":"12346414Z"}}</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B34">
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D34" t="str">
         <f>Hoja1!C34</f>
         <v>12346437Z</v>
       </c>
       <c r="E34" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\34.jpg","pct_emp_dni":"12346437Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\34.jpg","pct_emp_dni":"12346437Z"}}</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B35">
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D35" t="str">
         <f>Hoja1!C35</f>
         <v>12346460Z</v>
       </c>
       <c r="E35" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\35.jpg","pct_emp_dni":"12346460Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\35.jpg","pct_emp_dni":"12346460Z"}}</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B36">
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D36" t="str">
         <f>Hoja1!C36</f>
         <v>12346483Z</v>
       </c>
       <c r="E36" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\36.jpg","pct_emp_dni":"12346483Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\36.jpg","pct_emp_dni":"12346483Z"}}</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B37">
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D37" t="str">
         <f>Hoja1!C37</f>
         <v>12346506Z</v>
       </c>
       <c r="E37" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\37.jpg","pct_emp_dni":"12346506Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\37.jpg","pct_emp_dni":"12346506Z"}}</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B38">
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D38" t="str">
         <f>Hoja1!C38</f>
         <v>12346529Z</v>
       </c>
       <c r="E38" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\38.jpg","pct_emp_dni":"12346529Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\38.jpg","pct_emp_dni":"12346529Z"}}</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B39">
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D39" t="str">
         <f>Hoja1!C39</f>
         <v>12346552Z</v>
       </c>
       <c r="E39" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\39.jpg","pct_emp_dni":"12346552Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\39.jpg","pct_emp_dni":"12346552Z"}}</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B40">
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D40" t="str">
         <f>Hoja1!C40</f>
         <v>12346575Z</v>
       </c>
       <c r="E40" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\40.jpg","pct_emp_dni":"12346575Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\40.jpg","pct_emp_dni":"12346575Z"}}</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B41">
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D41" t="str">
         <f>Hoja1!C41</f>
         <v>12346598Z</v>
       </c>
       <c r="E41" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\41.jpg","pct_emp_dni":"12346598Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\41.jpg","pct_emp_dni":"12346598Z"}}</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B42">
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D42" t="str">
         <f>Hoja1!C42</f>
         <v>12346621Z</v>
       </c>
       <c r="E42" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\42.jpg","pct_emp_dni":"12346621Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\42.jpg","pct_emp_dni":"12346621Z"}}</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B43">
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D43" t="str">
         <f>Hoja1!C43</f>
         <v>12346644Z</v>
       </c>
       <c r="E43" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\43.jpg","pct_emp_dni":"12346644Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\43.jpg","pct_emp_dni":"12346644Z"}}</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B44">
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D44" t="str">
         <f>Hoja1!C44</f>
         <v>12346667Z</v>
       </c>
       <c r="E44" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\44.jpg","pct_emp_dni":"12346667Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\44.jpg","pct_emp_dni":"12346667Z"}}</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D45" t="str">
         <f>Hoja1!C45</f>
         <v>12346690Z</v>
       </c>
       <c r="E45" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12346690Z}}</v>
+        <f>CONCATENATE(A45,B45,C45,D45,E45)</f>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12346690Z"}}</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D46" t="str">
         <f>Hoja1!C46</f>
         <v>12346713Z</v>
       </c>
       <c r="E46" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12346713Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12346713Z"}}</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D47" t="str">
         <f>Hoja1!C47</f>
         <v>12346736Z</v>
       </c>
       <c r="E47" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12346736Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12346736Z"}}</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D48" t="str">
         <f>Hoja1!C48</f>
         <v>12346759Z</v>
       </c>
       <c r="E48" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12346759Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12346759Z"}}</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D49" t="str">
         <f>Hoja1!C49</f>
         <v>12346782Z</v>
       </c>
       <c r="E49" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12346782Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12346782Z"}}</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D50" t="str">
         <f>Hoja1!C50</f>
         <v>12346805Z</v>
       </c>
       <c r="E50" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12346805Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12346805Z"}}</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D51" t="str">
         <f>Hoja1!C51</f>
         <v>12346828Z</v>
       </c>
       <c r="E51" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12346828Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12346828Z"}}</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
         <v>783</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>784</v>
       </c>
       <c r="D52" t="str">
         <f>Hoja1!C52</f>
         <v>12346851Z</v>
       </c>
       <c r="E52" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12346851Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\2.jpg","pct_emp_dni":"12346851Z"}}</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
         <v>783</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>784</v>
       </c>
       <c r="D53" t="str">
         <f>Hoja1!C53</f>
         <v>12346874Z</v>
       </c>
       <c r="E53" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12346874Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\3.jpg","pct_emp_dni":"12346874Z"}}</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
         <v>783</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>784</v>
       </c>
       <c r="D54" t="str">
         <f>Hoja1!C54</f>
         <v>12346897Z</v>
       </c>
       <c r="E54" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12346897Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\4.jpg","pct_emp_dni":"12346897Z"}}</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
         <v>783</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>784</v>
       </c>
       <c r="D55" t="str">
         <f>Hoja1!C55</f>
         <v>12346920Z</v>
       </c>
       <c r="E55" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12346920Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\5.jpg","pct_emp_dni":"12346920Z"}}</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
         <v>783</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>784</v>
       </c>
       <c r="D56" t="str">
         <f>Hoja1!C56</f>
         <v>12346943Z</v>
       </c>
       <c r="E56" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12346943Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\6.jpg","pct_emp_dni":"12346943Z"}}</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
         <v>783</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>784</v>
       </c>
       <c r="D57" t="str">
         <f>Hoja1!C57</f>
         <v>12346966Z</v>
       </c>
       <c r="E57" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12346966Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\7.jpg","pct_emp_dni":"12346966Z"}}</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
         <v>783</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>784</v>
       </c>
       <c r="D58" t="str">
         <f>Hoja1!C58</f>
         <v>12346989Z</v>
       </c>
       <c r="E58" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12346989Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\8.jpg","pct_emp_dni":"12346989Z"}}</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
         <v>783</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>784</v>
       </c>
       <c r="D59" t="str">
         <f>Hoja1!C59</f>
         <v>12347012Z</v>
       </c>
       <c r="E59" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12347012Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\9.jpg","pct_emp_dni":"12347012Z"}}</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
         <v>783</v>
-      </c>
-      <c r="B60">
-        <v>2</v>
-      </c>
-      <c r="C60" t="s">
-        <v>784</v>
       </c>
       <c r="D60" t="str">
         <f>Hoja1!C60</f>
         <v>12347035Z</v>
       </c>
       <c r="E60" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\2.jpg","pct_emp_dni":"12347035Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\10.jpg","pct_emp_dni":"12347035Z"}}</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
         <v>783</v>
-      </c>
-      <c r="B61">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
-        <v>784</v>
       </c>
       <c r="D61" t="str">
         <f>Hoja1!C61</f>
         <v>12347058Z</v>
       </c>
       <c r="E61" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\3.jpg","pct_emp_dni":"12347058Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\11.jpg","pct_emp_dni":"12347058Z"}}</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
         <v>783</v>
-      </c>
-      <c r="B62">
-        <v>4</v>
-      </c>
-      <c r="C62" t="s">
-        <v>784</v>
       </c>
       <c r="D62" t="str">
         <f>Hoja1!C62</f>
         <v>12347081Z</v>
       </c>
       <c r="E62" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\4.jpg","pct_emp_dni":"12347081Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\12.jpg","pct_emp_dni":"12347081Z"}}</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B63">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
         <v>783</v>
-      </c>
-      <c r="B63">
-        <v>5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>784</v>
       </c>
       <c r="D63" t="str">
         <f>Hoja1!C63</f>
         <v>12347104Z</v>
       </c>
       <c r="E63" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\5.jpg","pct_emp_dni":"12347104Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\13.jpg","pct_emp_dni":"12347104Z"}}</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B64">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
         <v>783</v>
-      </c>
-      <c r="B64">
-        <v>6</v>
-      </c>
-      <c r="C64" t="s">
-        <v>784</v>
       </c>
       <c r="D64" t="str">
         <f>Hoja1!C64</f>
         <v>12347127Z</v>
       </c>
       <c r="E64" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\6.jpg","pct_emp_dni":"12347127Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\14.jpg","pct_emp_dni":"12347127Z"}}</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B65">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
         <v>783</v>
-      </c>
-      <c r="B65">
-        <v>7</v>
-      </c>
-      <c r="C65" t="s">
-        <v>784</v>
       </c>
       <c r="D65" t="str">
         <f>Hoja1!C65</f>
         <v>12347150Z</v>
       </c>
       <c r="E65" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\7.jpg","pct_emp_dni":"12347150Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\15.jpg","pct_emp_dni":"12347150Z"}}</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B66">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
         <v>783</v>
-      </c>
-      <c r="B66">
-        <v>8</v>
-      </c>
-      <c r="C66" t="s">
-        <v>784</v>
       </c>
       <c r="D66" t="str">
         <f>Hoja1!C66</f>
         <v>12347173Z</v>
       </c>
       <c r="E66" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" ref="F66:F129" si="1">CONCATENATE(A66,B66,C66,D66,E66)</f>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\8.jpg","pct_emp_dni":"12347173Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\16.jpg","pct_emp_dni":"12347173Z"}}</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B67">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
         <v>783</v>
-      </c>
-      <c r="B67">
-        <v>9</v>
-      </c>
-      <c r="C67" t="s">
-        <v>784</v>
       </c>
       <c r="D67" t="str">
         <f>Hoja1!C67</f>
         <v>12347196Z</v>
       </c>
       <c r="E67" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\9.jpg","pct_emp_dni":"12347196Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\17.jpg","pct_emp_dni":"12347196Z"}}</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B68">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
         <v>783</v>
-      </c>
-      <c r="B68">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s">
-        <v>784</v>
       </c>
       <c r="D68" t="str">
         <f>Hoja1!C68</f>
         <v>12347219Z</v>
       </c>
       <c r="E68" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\10.jpg","pct_emp_dni":"12347219Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\18.jpg","pct_emp_dni":"12347219Z"}}</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B69">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
         <v>783</v>
-      </c>
-      <c r="B69">
-        <v>11</v>
-      </c>
-      <c r="C69" t="s">
-        <v>784</v>
       </c>
       <c r="D69" t="str">
         <f>Hoja1!C69</f>
         <v>12347242Z</v>
       </c>
       <c r="E69" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\11.jpg","pct_emp_dni":"12347242Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\19.jpg","pct_emp_dni":"12347242Z"}}</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B70">
+        <v>20</v>
+      </c>
+      <c r="C70" t="s">
         <v>783</v>
-      </c>
-      <c r="B70">
-        <v>12</v>
-      </c>
-      <c r="C70" t="s">
-        <v>784</v>
       </c>
       <c r="D70" t="str">
         <f>Hoja1!C70</f>
         <v>12347265Z</v>
       </c>
       <c r="E70" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\12.jpg","pct_emp_dni":"12347265Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\20.jpg","pct_emp_dni":"12347265Z"}}</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B71">
+        <v>21</v>
+      </c>
+      <c r="C71" t="s">
         <v>783</v>
-      </c>
-      <c r="B71">
-        <v>13</v>
-      </c>
-      <c r="C71" t="s">
-        <v>784</v>
       </c>
       <c r="D71" t="str">
         <f>Hoja1!C71</f>
         <v>12347288Z</v>
       </c>
       <c r="E71" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\13.jpg","pct_emp_dni":"12347288Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\21.jpg","pct_emp_dni":"12347288Z"}}</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B72">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
         <v>783</v>
-      </c>
-      <c r="B72">
-        <v>14</v>
-      </c>
-      <c r="C72" t="s">
-        <v>784</v>
       </c>
       <c r="D72" t="str">
         <f>Hoja1!C72</f>
         <v>12347311Z</v>
       </c>
       <c r="E72" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\14.jpg","pct_emp_dni":"12347311Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\22.jpg","pct_emp_dni":"12347311Z"}}</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B73">
+        <v>23</v>
+      </c>
+      <c r="C73" t="s">
         <v>783</v>
-      </c>
-      <c r="B73">
-        <v>15</v>
-      </c>
-      <c r="C73" t="s">
-        <v>784</v>
       </c>
       <c r="D73" t="str">
         <f>Hoja1!C73</f>
         <v>12347334Z</v>
       </c>
       <c r="E73" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\15.jpg","pct_emp_dni":"12347334Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\23.jpg","pct_emp_dni":"12347334Z"}}</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B74">
+        <v>24</v>
+      </c>
+      <c r="C74" t="s">
         <v>783</v>
-      </c>
-      <c r="B74">
-        <v>16</v>
-      </c>
-      <c r="C74" t="s">
-        <v>784</v>
       </c>
       <c r="D74" t="str">
         <f>Hoja1!C74</f>
         <v>12347357Z</v>
       </c>
       <c r="E74" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\16.jpg","pct_emp_dni":"12347357Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\24.jpg","pct_emp_dni":"12347357Z"}}</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B75">
+        <v>25</v>
+      </c>
+      <c r="C75" t="s">
         <v>783</v>
-      </c>
-      <c r="B75">
-        <v>17</v>
-      </c>
-      <c r="C75" t="s">
-        <v>784</v>
       </c>
       <c r="D75" t="str">
         <f>Hoja1!C75</f>
         <v>12347380Z</v>
       </c>
       <c r="E75" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\17.jpg","pct_emp_dni":"12347380Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\25.jpg","pct_emp_dni":"12347380Z"}}</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B76">
+        <v>26</v>
+      </c>
+      <c r="C76" t="s">
         <v>783</v>
-      </c>
-      <c r="B76">
-        <v>18</v>
-      </c>
-      <c r="C76" t="s">
-        <v>784</v>
       </c>
       <c r="D76" t="str">
         <f>Hoja1!C76</f>
         <v>12347403Z</v>
       </c>
       <c r="E76" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\18.jpg","pct_emp_dni":"12347403Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\26.jpg","pct_emp_dni":"12347403Z"}}</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B77">
+        <v>27</v>
+      </c>
+      <c r="C77" t="s">
         <v>783</v>
-      </c>
-      <c r="B77">
-        <v>19</v>
-      </c>
-      <c r="C77" t="s">
-        <v>784</v>
       </c>
       <c r="D77" t="str">
         <f>Hoja1!C77</f>
         <v>12347426Z</v>
       </c>
       <c r="E77" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\19.jpg","pct_emp_dni":"12347426Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\27.jpg","pct_emp_dni":"12347426Z"}}</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B78">
+        <v>28</v>
+      </c>
+      <c r="C78" t="s">
         <v>783</v>
-      </c>
-      <c r="B78">
-        <v>20</v>
-      </c>
-      <c r="C78" t="s">
-        <v>784</v>
       </c>
       <c r="D78" t="str">
         <f>Hoja1!C78</f>
         <v>12347449Z</v>
       </c>
       <c r="E78" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\20.jpg","pct_emp_dni":"12347449Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\28.jpg","pct_emp_dni":"12347449Z"}}</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B79">
+        <v>29</v>
+      </c>
+      <c r="C79" t="s">
         <v>783</v>
-      </c>
-      <c r="B79">
-        <v>21</v>
-      </c>
-      <c r="C79" t="s">
-        <v>784</v>
       </c>
       <c r="D79" t="str">
         <f>Hoja1!C79</f>
         <v>12347472Z</v>
       </c>
       <c r="E79" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\21.jpg","pct_emp_dni":"12347472Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\29.jpg","pct_emp_dni":"12347472Z"}}</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B80">
+        <v>30</v>
+      </c>
+      <c r="C80" t="s">
         <v>783</v>
-      </c>
-      <c r="B80">
-        <v>22</v>
-      </c>
-      <c r="C80" t="s">
-        <v>784</v>
       </c>
       <c r="D80" t="str">
         <f>Hoja1!C80</f>
         <v>12347495Z</v>
       </c>
       <c r="E80" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\22.jpg","pct_emp_dni":"12347495Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\30.jpg","pct_emp_dni":"12347495Z"}}</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B81">
+        <v>31</v>
+      </c>
+      <c r="C81" t="s">
         <v>783</v>
-      </c>
-      <c r="B81">
-        <v>23</v>
-      </c>
-      <c r="C81" t="s">
-        <v>784</v>
       </c>
       <c r="D81" t="str">
         <f>Hoja1!C81</f>
         <v>12347518Z</v>
       </c>
       <c r="E81" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\23.jpg","pct_emp_dni":"12347518Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\31.jpg","pct_emp_dni":"12347518Z"}}</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B82">
+        <v>32</v>
+      </c>
+      <c r="C82" t="s">
         <v>783</v>
-      </c>
-      <c r="B82">
-        <v>24</v>
-      </c>
-      <c r="C82" t="s">
-        <v>784</v>
       </c>
       <c r="D82" t="str">
         <f>Hoja1!C82</f>
         <v>12347541Z</v>
       </c>
       <c r="E82" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\24.jpg","pct_emp_dni":"12347541Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\32.jpg","pct_emp_dni":"12347541Z"}}</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B83">
+        <v>33</v>
+      </c>
+      <c r="C83" t="s">
         <v>783</v>
-      </c>
-      <c r="B83">
-        <v>25</v>
-      </c>
-      <c r="C83" t="s">
-        <v>784</v>
       </c>
       <c r="D83" t="str">
         <f>Hoja1!C83</f>
         <v>12347564Z</v>
       </c>
       <c r="E83" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\25.jpg","pct_emp_dni":"12347564Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\33.jpg","pct_emp_dni":"12347564Z"}}</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B84">
+        <v>34</v>
+      </c>
+      <c r="C84" t="s">
         <v>783</v>
-      </c>
-      <c r="B84">
-        <v>26</v>
-      </c>
-      <c r="C84" t="s">
-        <v>784</v>
       </c>
       <c r="D84" t="str">
         <f>Hoja1!C84</f>
         <v>12347587Z</v>
       </c>
       <c r="E84" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\26.jpg","pct_emp_dni":"12347587Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\34.jpg","pct_emp_dni":"12347587Z"}}</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B85">
+        <v>35</v>
+      </c>
+      <c r="C85" t="s">
         <v>783</v>
-      </c>
-      <c r="B85">
-        <v>27</v>
-      </c>
-      <c r="C85" t="s">
-        <v>784</v>
       </c>
       <c r="D85" t="str">
         <f>Hoja1!C85</f>
         <v>12347610Z</v>
       </c>
       <c r="E85" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\27.jpg","pct_emp_dni":"12347610Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\35.jpg","pct_emp_dni":"12347610Z"}}</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B86">
+        <v>36</v>
+      </c>
+      <c r="C86" t="s">
         <v>783</v>
-      </c>
-      <c r="B86">
-        <v>28</v>
-      </c>
-      <c r="C86" t="s">
-        <v>784</v>
       </c>
       <c r="D86" t="str">
         <f>Hoja1!C86</f>
         <v>12347633Z</v>
       </c>
       <c r="E86" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\28.jpg","pct_emp_dni":"12347633Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\36.jpg","pct_emp_dni":"12347633Z"}}</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B87">
+        <v>37</v>
+      </c>
+      <c r="C87" t="s">
         <v>783</v>
-      </c>
-      <c r="B87">
-        <v>29</v>
-      </c>
-      <c r="C87" t="s">
-        <v>784</v>
       </c>
       <c r="D87" t="str">
         <f>Hoja1!C87</f>
         <v>12347656Z</v>
       </c>
       <c r="E87" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\29.jpg","pct_emp_dni":"12347656Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\37.jpg","pct_emp_dni":"12347656Z"}}</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B88">
+        <v>38</v>
+      </c>
+      <c r="C88" t="s">
         <v>783</v>
-      </c>
-      <c r="B88">
-        <v>30</v>
-      </c>
-      <c r="C88" t="s">
-        <v>784</v>
       </c>
       <c r="D88" t="str">
         <f>Hoja1!C88</f>
         <v>12347679Z</v>
       </c>
       <c r="E88" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\30.jpg","pct_emp_dni":"12347679Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\38.jpg","pct_emp_dni":"12347679Z"}}</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B89">
+        <v>39</v>
+      </c>
+      <c r="C89" t="s">
         <v>783</v>
-      </c>
-      <c r="B89">
-        <v>31</v>
-      </c>
-      <c r="C89" t="s">
-        <v>784</v>
       </c>
       <c r="D89" t="str">
         <f>Hoja1!C89</f>
         <v>12347702Z</v>
       </c>
       <c r="E89" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\31.jpg","pct_emp_dni":"12347702Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\39.jpg","pct_emp_dni":"12347702Z"}}</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B90">
+        <v>40</v>
+      </c>
+      <c r="C90" t="s">
         <v>783</v>
-      </c>
-      <c r="B90">
-        <v>32</v>
-      </c>
-      <c r="C90" t="s">
-        <v>784</v>
       </c>
       <c r="D90" t="str">
         <f>Hoja1!C90</f>
         <v>12347725Z</v>
       </c>
       <c r="E90" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\32.jpg","pct_emp_dni":"12347725Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\40.jpg","pct_emp_dni":"12347725Z"}}</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B91">
+        <v>41</v>
+      </c>
+      <c r="C91" t="s">
         <v>783</v>
-      </c>
-      <c r="B91">
-        <v>33</v>
-      </c>
-      <c r="C91" t="s">
-        <v>784</v>
       </c>
       <c r="D91" t="str">
         <f>Hoja1!C91</f>
         <v>12347748Z</v>
       </c>
       <c r="E91" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\33.jpg","pct_emp_dni":"12347748Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\41.jpg","pct_emp_dni":"12347748Z"}}</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B92">
         <v>34</v>
       </c>
       <c r="C92" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D92" t="str">
         <f>Hoja1!C92</f>
         <v>12347771Z</v>
       </c>
       <c r="E92" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\34.jpg","pct_emp_dni":"12347771Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\34.jpg","pct_emp_dni":"12347771Z"}}</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B93">
         <v>35</v>
       </c>
       <c r="C93" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D93" t="str">
         <f>Hoja1!C93</f>
         <v>12347794Z</v>
       </c>
       <c r="E93" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\35.jpg","pct_emp_dni":"12347794Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\35.jpg","pct_emp_dni":"12347794Z"}}</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B94">
         <v>36</v>
       </c>
       <c r="C94" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D94" t="str">
         <f>Hoja1!C94</f>
         <v>12347817Z</v>
       </c>
       <c r="E94" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F94" t="str">
-        <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\36.jpg","pct_emp_dni":"12347817Z}}</v>
+        <f>CONCATENATE(A94,B94,C94,D94,E94)</f>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\36.jpg","pct_emp_dni":"12347817Z"}}</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B95">
         <v>37</v>
       </c>
       <c r="C95" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D95" t="str">
         <f>Hoja1!C95</f>
         <v>12347840Z</v>
       </c>
       <c r="E95" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\37.jpg","pct_emp_dni":"12347840Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\37.jpg","pct_emp_dni":"12347840Z"}}</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B96">
         <v>38</v>
       </c>
       <c r="C96" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D96" t="str">
         <f>Hoja1!C96</f>
         <v>12347863Z</v>
       </c>
       <c r="E96" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\38.jpg","pct_emp_dni":"12347863Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\38.jpg","pct_emp_dni":"12347863Z"}}</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B97">
         <v>39</v>
       </c>
       <c r="C97" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D97" t="str">
         <f>Hoja1!C97</f>
         <v>12347886Z</v>
       </c>
       <c r="E97" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\39.jpg","pct_emp_dni":"12347886Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\39.jpg","pct_emp_dni":"12347886Z"}}</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B98">
         <v>40</v>
       </c>
       <c r="C98" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D98" t="str">
         <f>Hoja1!C98</f>
         <v>12347909Z</v>
       </c>
       <c r="E98" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\40.jpg","pct_emp_dni":"12347909Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\40.jpg","pct_emp_dni":"12347909Z"}}</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B99">
         <v>41</v>
       </c>
       <c r="C99" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D99" t="str">
         <f>Hoja1!C99</f>
         <v>12347932Z</v>
       </c>
       <c r="E99" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\41.jpg","pct_emp_dni":"12347932Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\41.jpg","pct_emp_dni":"12347932Z"}}</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B100">
         <v>42</v>
       </c>
       <c r="C100" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D100" t="str">
         <f>Hoja1!C100</f>
         <v>12347955Z</v>
       </c>
       <c r="E100" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\42.jpg","pct_emp_dni":"12347955Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\42.jpg","pct_emp_dni":"12347955Z"}}</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B101">
         <v>43</v>
       </c>
       <c r="C101" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D101" t="str">
         <f>Hoja1!C101</f>
         <v>12347978Z</v>
       </c>
       <c r="E101" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\43.jpg","pct_emp_dni":"12347978Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\43.jpg","pct_emp_dni":"12347978Z"}}</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B102">
         <v>44</v>
       </c>
       <c r="C102" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D102" t="str">
         <f>Hoja1!C102</f>
         <v>12348001Z</v>
       </c>
       <c r="E102" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\44.jpg","pct_emp_dni":"12348001Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\44.jpg","pct_emp_dni":"12348001Z"}}</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D103" t="str">
         <f>Hoja1!C103</f>
         <v>12348024Z</v>
       </c>
       <c r="E103" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F103" t="str">
-        <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12348024Z}}</v>
+        <f>CONCATENATE(A103,B103,C103,D103,E103)</f>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12348024Z"}}</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B104">
         <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D104" t="str">
         <f>Hoja1!C104</f>
         <v>12348047Z</v>
       </c>
       <c r="E104" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F104" t="str">
-        <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\2.jpg","pct_emp_dni":"12348047Z}}</v>
+        <f>CONCATENATE(A104,B104,C104,D104,E104)</f>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\2.jpg","pct_emp_dni":"12348047Z"}}</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B105">
         <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D105" t="str">
         <f>Hoja1!C105</f>
         <v>12348070Z</v>
       </c>
       <c r="E105" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\3.jpg","pct_emp_dni":"12348070Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\3.jpg","pct_emp_dni":"12348070Z"}}</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B106">
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D106" t="str">
         <f>Hoja1!C106</f>
         <v>12348093Z</v>
       </c>
       <c r="E106" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\4.jpg","pct_emp_dni":"12348093Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\4.jpg","pct_emp_dni":"12348093Z"}}</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B107">
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D107" t="str">
         <f>Hoja1!C107</f>
         <v>12348116Z</v>
       </c>
       <c r="E107" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\5.jpg","pct_emp_dni":"12348116Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\5.jpg","pct_emp_dni":"12348116Z"}}</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B108">
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D108" t="str">
         <f>Hoja1!C108</f>
         <v>12348139Z</v>
       </c>
       <c r="E108" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\6.jpg","pct_emp_dni":"12348139Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\6.jpg","pct_emp_dni":"12348139Z"}}</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B109">
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D109" t="str">
         <f>Hoja1!C109</f>
         <v>12348162Z</v>
       </c>
       <c r="E109" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\7.jpg","pct_emp_dni":"12348162Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\7.jpg","pct_emp_dni":"12348162Z"}}</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B110">
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D110" t="str">
         <f>Hoja1!C110</f>
         <v>12348185Z</v>
       </c>
       <c r="E110" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\8.jpg","pct_emp_dni":"12348185Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\8.jpg","pct_emp_dni":"12348185Z"}}</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B111">
         <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D111" t="str">
         <f>Hoja1!C111</f>
         <v>12348208Z</v>
       </c>
       <c r="E111" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\9.jpg","pct_emp_dni":"12348208Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\9.jpg","pct_emp_dni":"12348208Z"}}</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B112">
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D112" t="str">
         <f>Hoja1!C112</f>
         <v>12348231Z</v>
       </c>
       <c r="E112" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\10.jpg","pct_emp_dni":"12348231Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\10.jpg","pct_emp_dni":"12348231Z"}}</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B113">
         <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D113" t="str">
         <f>Hoja1!C113</f>
         <v>12348254Z</v>
       </c>
       <c r="E113" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\11.jpg","pct_emp_dni":"12348254Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\11.jpg","pct_emp_dni":"12348254Z"}}</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B114">
         <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D114" t="str">
         <f>Hoja1!C114</f>
         <v>12348277Z</v>
       </c>
       <c r="E114" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\12.jpg","pct_emp_dni":"12348277Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\12.jpg","pct_emp_dni":"12348277Z"}}</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B115">
         <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D115" t="str">
         <f>Hoja1!C115</f>
         <v>12348300Z</v>
       </c>
       <c r="E115" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\13.jpg","pct_emp_dni":"12348300Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\13.jpg","pct_emp_dni":"12348300Z"}}</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B116">
         <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D116" t="str">
         <f>Hoja1!C116</f>
         <v>12348323Z</v>
       </c>
       <c r="E116" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\14.jpg","pct_emp_dni":"12348323Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\14.jpg","pct_emp_dni":"12348323Z"}}</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B117">
         <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D117" t="str">
         <f>Hoja1!C117</f>
         <v>12348346Z</v>
       </c>
       <c r="E117" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\15.jpg","pct_emp_dni":"12348346Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\15.jpg","pct_emp_dni":"12348346Z"}}</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B118">
         <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D118" t="str">
         <f>Hoja1!C118</f>
         <v>12348369Z</v>
       </c>
       <c r="E118" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\16.jpg","pct_emp_dni":"12348369Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\16.jpg","pct_emp_dni":"12348369Z"}}</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B119">
         <v>17</v>
       </c>
       <c r="C119" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D119" t="str">
         <f>Hoja1!C119</f>
         <v>12348392Z</v>
       </c>
       <c r="E119" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\17.jpg","pct_emp_dni":"12348392Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\17.jpg","pct_emp_dni":"12348392Z"}}</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B120">
         <v>18</v>
       </c>
       <c r="C120" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D120" t="str">
         <f>Hoja1!C120</f>
         <v>12348415Z</v>
       </c>
       <c r="E120" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\18.jpg","pct_emp_dni":"12348415Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\18.jpg","pct_emp_dni":"12348415Z"}}</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B121">
         <v>19</v>
       </c>
       <c r="C121" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D121" t="str">
         <f>Hoja1!C121</f>
         <v>12348438Z</v>
       </c>
       <c r="E121" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\19.jpg","pct_emp_dni":"12348438Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\19.jpg","pct_emp_dni":"12348438Z"}}</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B122">
         <v>20</v>
       </c>
       <c r="C122" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D122" t="str">
         <f>Hoja1!C122</f>
         <v>12348461Z</v>
       </c>
       <c r="E122" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F122" t="str">
-        <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\20.jpg","pct_emp_dni":"12348461Z}}</v>
+        <f>CONCATENATE(A122,B122,C122,D122,E122)</f>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\20.jpg","pct_emp_dni":"12348461Z"}}</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B123">
         <v>21</v>
       </c>
       <c r="C123" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D123" t="str">
         <f>Hoja1!C123</f>
         <v>12348484Z</v>
       </c>
       <c r="E123" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\21.jpg","pct_emp_dni":"12348484Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\21.jpg","pct_emp_dni":"12348484Z"}}</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B124">
         <v>22</v>
       </c>
       <c r="C124" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D124" t="str">
         <f>Hoja1!C124</f>
         <v>12348507Z</v>
       </c>
       <c r="E124" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\22.jpg","pct_emp_dni":"12348507Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\22.jpg","pct_emp_dni":"12348507Z"}}</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B125">
         <v>23</v>
       </c>
       <c r="C125" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D125" t="str">
         <f>Hoja1!C125</f>
         <v>12348530Z</v>
       </c>
       <c r="E125" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\23.jpg","pct_emp_dni":"12348530Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\23.jpg","pct_emp_dni":"12348530Z"}}</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B126">
         <v>24</v>
       </c>
       <c r="C126" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D126" t="str">
         <f>Hoja1!C126</f>
         <v>12348553Z</v>
       </c>
       <c r="E126" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\24.jpg","pct_emp_dni":"12348553Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\24.jpg","pct_emp_dni":"12348553Z"}}</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B127">
         <v>25</v>
       </c>
       <c r="C127" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D127" t="str">
         <f>Hoja1!C127</f>
         <v>12348576Z</v>
       </c>
       <c r="E127" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\25.jpg","pct_emp_dni":"12348576Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\25.jpg","pct_emp_dni":"12348576Z"}}</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B128">
         <v>26</v>
       </c>
       <c r="C128" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D128" t="str">
         <f>Hoja1!C128</f>
         <v>12348599Z</v>
       </c>
       <c r="E128" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\26.jpg","pct_emp_dni":"12348599Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\26.jpg","pct_emp_dni":"12348599Z"}}</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B129">
         <v>27</v>
       </c>
       <c r="C129" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D129" t="str">
         <f>Hoja1!C129</f>
         <v>12348622Z</v>
       </c>
       <c r="E129" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="1"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\27.jpg","pct_emp_dni":"12348622Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\27.jpg","pct_emp_dni":"12348622Z"}}</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B130">
         <v>28</v>
       </c>
       <c r="C130" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D130" t="str">
         <f>Hoja1!C130</f>
         <v>12348645Z</v>
       </c>
       <c r="E130" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" ref="F130:F175" si="2">CONCATENATE(A130,B130,C130,D130,E130)</f>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\28.jpg","pct_emp_dni":"12348645Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\28.jpg","pct_emp_dni":"12348645Z"}}</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B131">
         <v>29</v>
       </c>
       <c r="C131" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D131" t="str">
         <f>Hoja1!C131</f>
         <v>12348668Z</v>
       </c>
       <c r="E131" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\29.jpg","pct_emp_dni":"12348668Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\29.jpg","pct_emp_dni":"12348668Z"}}</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B132">
         <v>30</v>
       </c>
       <c r="C132" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D132" t="str">
         <f>Hoja1!C132</f>
         <v>12348691Z</v>
       </c>
       <c r="E132" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\30.jpg","pct_emp_dni":"12348691Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\30.jpg","pct_emp_dni":"12348691Z"}}</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B133">
         <v>31</v>
       </c>
       <c r="C133" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D133" t="str">
         <f>Hoja1!C133</f>
         <v>12348714Z</v>
       </c>
       <c r="E133" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\31.jpg","pct_emp_dni":"12348714Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\31.jpg","pct_emp_dni":"12348714Z"}}</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B134">
         <v>32</v>
       </c>
       <c r="C134" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D134" t="str">
         <f>Hoja1!C134</f>
         <v>12348737Z</v>
       </c>
       <c r="E134" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\32.jpg","pct_emp_dni":"12348737Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\32.jpg","pct_emp_dni":"12348737Z"}}</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B135">
         <v>33</v>
       </c>
       <c r="C135" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D135" t="str">
         <f>Hoja1!C135</f>
         <v>12348760Z</v>
       </c>
       <c r="E135" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\33.jpg","pct_emp_dni":"12348760Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\33.jpg","pct_emp_dni":"12348760Z"}}</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B136">
         <v>34</v>
       </c>
       <c r="C136" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D136" t="str">
         <f>Hoja1!C136</f>
         <v>12348783Z</v>
       </c>
       <c r="E136" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\34.jpg","pct_emp_dni":"12348783Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\34.jpg","pct_emp_dni":"12348783Z"}}</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B137">
         <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D137" t="str">
         <f>Hoja1!C137</f>
         <v>12348806Z</v>
       </c>
       <c r="E137" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\35.jpg","pct_emp_dni":"12348806Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\35.jpg","pct_emp_dni":"12348806Z"}}</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B138">
         <v>36</v>
       </c>
       <c r="C138" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D138" t="str">
         <f>Hoja1!C138</f>
         <v>12348829Z</v>
       </c>
       <c r="E138" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\36.jpg","pct_emp_dni":"12348829Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\36.jpg","pct_emp_dni":"12348829Z"}}</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B139">
         <v>37</v>
       </c>
       <c r="C139" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D139" t="str">
         <f>Hoja1!C139</f>
         <v>12348852Z</v>
       </c>
       <c r="E139" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\37.jpg","pct_emp_dni":"12348852Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\37.jpg","pct_emp_dni":"12348852Z"}}</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B140">
         <v>38</v>
       </c>
       <c r="C140" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D140" t="str">
         <f>Hoja1!C140</f>
         <v>12348875Z</v>
       </c>
       <c r="E140" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\38.jpg","pct_emp_dni":"12348875Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\38.jpg","pct_emp_dni":"12348875Z"}}</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B141">
         <v>39</v>
       </c>
       <c r="C141" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D141" t="str">
         <f>Hoja1!C141</f>
         <v>12348898Z</v>
       </c>
       <c r="E141" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\39.jpg","pct_emp_dni":"12348898Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\39.jpg","pct_emp_dni":"12348898Z"}}</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B142">
         <v>40</v>
       </c>
       <c r="C142" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D142" t="str">
         <f>Hoja1!C142</f>
         <v>12348921Z</v>
       </c>
       <c r="E142" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\40.jpg","pct_emp_dni":"12348921Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\40.jpg","pct_emp_dni":"12348921Z"}}</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B143">
         <v>41</v>
       </c>
       <c r="C143" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D143" t="str">
         <f>Hoja1!C143</f>
         <v>12348944Z</v>
       </c>
       <c r="E143" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F143" t="str">
-        <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\41.jpg","pct_emp_dni":"12348944Z}}</v>
+        <f>CONCATENATE(A143,B143,C143,D143,E143)</f>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\41.jpg","pct_emp_dni":"12348944Z"}}</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B144">
         <v>42</v>
       </c>
       <c r="C144" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D144" t="str">
         <f>Hoja1!C144</f>
         <v>12348967Z</v>
       </c>
       <c r="E144" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\42.jpg","pct_emp_dni":"12348967Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\42.jpg","pct_emp_dni":"12348967Z"}}</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B145">
         <v>43</v>
       </c>
       <c r="C145" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D145" t="str">
         <f>Hoja1!C145</f>
         <v>12348990Z</v>
       </c>
       <c r="E145" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\43.jpg","pct_emp_dni":"12348990Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\43.jpg","pct_emp_dni":"12348990Z"}}</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B146">
         <v>44</v>
       </c>
       <c r="C146" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D146" t="str">
         <f>Hoja1!C146</f>
         <v>12349013Z</v>
       </c>
       <c r="E146" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F146" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\44.jpg","pct_emp_dni":"12349013Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\44.jpg","pct_emp_dni":"12349013Z"}}</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D147" t="str">
         <f>Hoja1!C147</f>
         <v>12349036Z</v>
       </c>
       <c r="E147" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12349036Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\1.jpg","pct_emp_dni":"12349036Z"}}</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B148">
         <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D148" t="str">
         <f>Hoja1!C148</f>
         <v>12349059Z</v>
       </c>
       <c r="E148" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\2.jpg","pct_emp_dni":"12349059Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\2.jpg","pct_emp_dni":"12349059Z"}}</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B149">
         <v>3</v>
       </c>
       <c r="C149" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D149" t="str">
         <f>Hoja1!C149</f>
         <v>12349082Z</v>
       </c>
       <c r="E149" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\3.jpg","pct_emp_dni":"12349082Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\3.jpg","pct_emp_dni":"12349082Z"}}</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B150">
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D150" t="str">
         <f>Hoja1!C150</f>
         <v>12349105Z</v>
       </c>
       <c r="E150" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\4.jpg","pct_emp_dni":"12349105Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\4.jpg","pct_emp_dni":"12349105Z"}}</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B151">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D151" t="str">
         <f>Hoja1!C151</f>
         <v>12349128Z</v>
       </c>
       <c r="E151" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F151" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\5.jpg","pct_emp_dni":"12349128Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\5.jpg","pct_emp_dni":"12349128Z"}}</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B152">
         <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D152" t="str">
         <f>Hoja1!C152</f>
         <v>12349151Z</v>
       </c>
       <c r="E152" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\6.jpg","pct_emp_dni":"12349151Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\6.jpg","pct_emp_dni":"12349151Z"}}</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B153">
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D153" t="str">
         <f>Hoja1!C153</f>
         <v>12349174Z</v>
       </c>
       <c r="E153" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\7.jpg","pct_emp_dni":"12349174Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\7.jpg","pct_emp_dni":"12349174Z"}}</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B154">
         <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D154" t="str">
         <f>Hoja1!C154</f>
         <v>12349197Z</v>
       </c>
       <c r="E154" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F154" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\8.jpg","pct_emp_dni":"12349197Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\8.jpg","pct_emp_dni":"12349197Z"}}</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B155">
         <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D155" t="str">
         <f>Hoja1!C155</f>
         <v>12349220Z</v>
       </c>
       <c r="E155" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F155" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\9.jpg","pct_emp_dni":"12349220Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\9.jpg","pct_emp_dni":"12349220Z"}}</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B156">
         <v>10</v>
       </c>
       <c r="C156" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D156" t="str">
         <f>Hoja1!C156</f>
         <v>12349243Z</v>
       </c>
       <c r="E156" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F156" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\10.jpg","pct_emp_dni":"12349243Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\10.jpg","pct_emp_dni":"12349243Z"}}</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B157">
         <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D157" t="str">
         <f>Hoja1!C157</f>
         <v>12349266Z</v>
       </c>
       <c r="E157" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\11.jpg","pct_emp_dni":"12349266Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\11.jpg","pct_emp_dni":"12349266Z"}}</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B158">
         <v>12</v>
       </c>
       <c r="C158" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D158" t="str">
         <f>Hoja1!C158</f>
         <v>12349289Z</v>
       </c>
       <c r="E158" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\12.jpg","pct_emp_dni":"12349289Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\12.jpg","pct_emp_dni":"12349289Z"}}</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B159">
         <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D159" t="str">
         <f>Hoja1!C159</f>
         <v>12349312Z</v>
       </c>
       <c r="E159" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F159" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\13.jpg","pct_emp_dni":"12349312Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\13.jpg","pct_emp_dni":"12349312Z"}}</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B160">
         <v>14</v>
       </c>
       <c r="C160" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D160" t="str">
         <f>Hoja1!C160</f>
         <v>12349335Z</v>
       </c>
       <c r="E160" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F160" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\14.jpg","pct_emp_dni":"12349335Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\14.jpg","pct_emp_dni":"12349335Z"}}</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B161">
         <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D161" t="str">
         <f>Hoja1!C161</f>
         <v>12349358Z</v>
       </c>
       <c r="E161" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F161" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\15.jpg","pct_emp_dni":"12349358Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\15.jpg","pct_emp_dni":"12349358Z"}}</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B162">
         <v>16</v>
       </c>
       <c r="C162" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D162" t="str">
         <f>Hoja1!C162</f>
         <v>12349381Z</v>
       </c>
       <c r="E162" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F162" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\16.jpg","pct_emp_dni":"12349381Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\16.jpg","pct_emp_dni":"12349381Z"}}</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B163">
         <v>17</v>
       </c>
       <c r="C163" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D163" t="str">
         <f>Hoja1!C163</f>
         <v>12349404Z</v>
       </c>
       <c r="E163" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F163" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\17.jpg","pct_emp_dni":"12349404Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\17.jpg","pct_emp_dni":"12349404Z"}}</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B164">
         <v>18</v>
       </c>
       <c r="C164" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D164" t="str">
         <f>Hoja1!C164</f>
         <v>12349427Z</v>
       </c>
       <c r="E164" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F164" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\18.jpg","pct_emp_dni":"12349427Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\18.jpg","pct_emp_dni":"12349427Z"}}</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B165">
         <v>19</v>
       </c>
       <c r="C165" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D165" t="str">
         <f>Hoja1!C165</f>
         <v>12349450Z</v>
       </c>
       <c r="E165" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F165" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\19.jpg","pct_emp_dni":"12349450Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\19.jpg","pct_emp_dni":"12349450Z"}}</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B166">
         <v>20</v>
       </c>
       <c r="C166" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D166" t="str">
         <f>Hoja1!C166</f>
         <v>12349473Z</v>
       </c>
       <c r="E166" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F166" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\20.jpg","pct_emp_dni":"12349473Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\20.jpg","pct_emp_dni":"12349473Z"}}</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B167">
         <v>21</v>
       </c>
       <c r="C167" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D167" t="str">
         <f>Hoja1!C167</f>
         <v>12349496Z</v>
       </c>
       <c r="E167" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\21.jpg","pct_emp_dni":"12349496Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\21.jpg","pct_emp_dni":"12349496Z"}}</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B168">
         <v>22</v>
       </c>
       <c r="C168" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D168" t="str">
         <f>Hoja1!C168</f>
         <v>12349519Z</v>
       </c>
       <c r="E168" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F168" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\22.jpg","pct_emp_dni":"12349519Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\22.jpg","pct_emp_dni":"12349519Z"}}</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B169">
         <v>23</v>
       </c>
       <c r="C169" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D169" t="str">
         <f>Hoja1!C169</f>
         <v>12349542Z</v>
       </c>
       <c r="E169" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F169" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\23.jpg","pct_emp_dni":"12349542Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\23.jpg","pct_emp_dni":"12349542Z"}}</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B170">
         <v>24</v>
       </c>
       <c r="C170" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D170" t="str">
         <f>Hoja1!C170</f>
         <v>12349565Z</v>
       </c>
       <c r="E170" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F170" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\24.jpg","pct_emp_dni":"12349565Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\24.jpg","pct_emp_dni":"12349565Z"}}</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B171">
         <v>25</v>
       </c>
       <c r="C171" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D171" t="str">
         <f>Hoja1!C171</f>
         <v>12349588Z</v>
       </c>
       <c r="E171" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F171" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\25.jpg","pct_emp_dni":"12349588Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\25.jpg","pct_emp_dni":"12349588Z"}}</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B172">
         <v>26</v>
       </c>
       <c r="C172" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D172" t="str">
         <f>Hoja1!C172</f>
         <v>12349611Z</v>
       </c>
       <c r="E172" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F172" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\26.jpg","pct_emp_dni":"12349611Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\26.jpg","pct_emp_dni":"12349611Z"}}</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B173">
         <v>27</v>
       </c>
       <c r="C173" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D173" t="str">
         <f>Hoja1!C173</f>
         <v>12349634Z</v>
       </c>
       <c r="E173" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F173" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\27.jpg","pct_emp_dni":"12349634Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\27.jpg","pct_emp_dni":"12349634Z"}}</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B174">
         <v>28</v>
       </c>
       <c r="C174" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D174" t="str">
         <f>Hoja1!C174</f>
         <v>12349657Z</v>
       </c>
       <c r="E174" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F174" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\28.jpg","pct_emp_dni":"12349657Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\28.jpg","pct_emp_dni":"12349657Z"}}</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B175">
         <v>29</v>
       </c>
       <c r="C175" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D175" t="str">
         <f>Hoja1!C175</f>
         <v>12349680Z</v>
       </c>
       <c r="E175" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F175" t="str">
         <f t="shared" si="2"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\29.jpg","pct_emp_dni":"12349680Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\29.jpg","pct_emp_dni":"12349680Z"}}</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B176">
         <v>30</v>
       </c>
       <c r="C176" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D176" t="str">
         <f>Hoja1!C176</f>
         <v>12349703Z</v>
       </c>
       <c r="E176" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F176" t="str">
         <f t="shared" ref="F176:F184" si="3">CONCATENATE(A176,B176,C176,D176,E176)</f>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\30.jpg","pct_emp_dni":"12349703Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\30.jpg","pct_emp_dni":"12349703Z"}}</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B177">
         <v>31</v>
       </c>
       <c r="C177" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D177" t="str">
         <f>Hoja1!C177</f>
         <v>12349726Z</v>
       </c>
       <c r="E177" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F177" t="str">
         <f t="shared" si="3"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\31.jpg","pct_emp_dni":"12349726Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\31.jpg","pct_emp_dni":"12349726Z"}}</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B178">
         <v>32</v>
       </c>
       <c r="C178" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D178" t="str">
         <f>Hoja1!C178</f>
         <v>12349749Z</v>
       </c>
       <c r="E178" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F178" t="str">
         <f t="shared" si="3"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\32.jpg","pct_emp_dni":"12349749Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\32.jpg","pct_emp_dni":"12349749Z"}}</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B179">
         <v>33</v>
       </c>
       <c r="C179" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D179" t="str">
         <f>Hoja1!C179</f>
         <v>12349772Z</v>
       </c>
       <c r="E179" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F179" t="str">
-        <f t="shared" si="3"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\33.jpg","pct_emp_dni":"12349772Z}}</v>
+        <f>CONCATENATE(A179,B179,C179,D179,E179)</f>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\33.jpg","pct_emp_dni":"12349772Z"}}</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B180">
         <v>34</v>
       </c>
       <c r="C180" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D180" t="str">
         <f>Hoja1!C180</f>
         <v>12349795Z</v>
       </c>
       <c r="E180" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F180" t="str">
         <f t="shared" si="3"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\34.jpg","pct_emp_dni":"12349795Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\34.jpg","pct_emp_dni":"12349795Z"}}</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B181">
         <v>35</v>
       </c>
       <c r="C181" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D181" t="str">
         <f>Hoja1!C181</f>
         <v>12349818Z</v>
       </c>
       <c r="E181" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F181" t="str">
-        <f t="shared" si="3"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\35.jpg","pct_emp_dni":"12349818Z}}</v>
+        <f>CONCATENATE(A181,B181,C181,D181,E181)</f>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\35.jpg","pct_emp_dni":"12349818Z"}}</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B182">
         <v>36</v>
       </c>
       <c r="C182" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D182" t="str">
         <f>Hoja1!C182</f>
         <v>12349841Z</v>
       </c>
       <c r="E182" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F182" t="str">
         <f t="shared" si="3"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\36.jpg","pct_emp_dni":"12349841Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\36.jpg","pct_emp_dni":"12349841Z"}}</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B183">
         <v>37</v>
       </c>
       <c r="C183" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D183" t="str">
         <f>Hoja1!C183</f>
         <v>12349864Z</v>
       </c>
       <c r="E183" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F183" t="str">
         <f t="shared" si="3"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\37.jpg","pct_emp_dni":"12349864Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\37.jpg","pct_emp_dni":"12349864Z"}}</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B184">
         <v>38</v>
       </c>
       <c r="C184" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D184" t="str">
         <f>Hoja1!C184</f>
         <v>12349887Z</v>
       </c>
       <c r="E184" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F184" t="str">
         <f t="shared" si="3"/>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\38.jpg","pct_emp_dni":"12349887Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\38.jpg","pct_emp_dni":"12349887Z"}}</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B185">
         <v>39</v>
       </c>
       <c r="C185" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D185" t="str">
         <f>Hoja1!C185</f>
         <v>12349910Z</v>
       </c>
       <c r="E185" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F185" t="str">
         <f>CONCATENATE(A185,B185,C185,D185,E185)</f>
-        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\39.jpg","pct_emp_dni":"12349910Z}}</v>
+        <v>{"data":{"pct_name":"atom","pct_description": "employee","pct_file": "c:\\39.jpg","pct_emp_dni":"12349910Z"}}</v>
       </c>
     </row>
   </sheetData>
